--- a/data/clean/Basketball Tableau Table of Contents.xlsx
+++ b/data/clean/Basketball Tableau Table of Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeise\Desktop\GWBC\Basketball-Analysis-Repo\data\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16DF061C-89C3-4BE6-B2E1-82F26D0864F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8857DA-F6F3-4F69-85E6-1B7F528483B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8952" xr2:uid="{07C18040-5EC6-43CB-8AC1-1CD3B6ED27E6}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">This dashboard is dedicated to exploring the relationship between pre-NBA stats and whether they played in the NBA in their rookie season. </t>
   </si>
   <si>
-    <t xml:space="preserve">This dashboard is dedicated to exploring the relationship between the NBA Value Over Replacement Player stat and other NBA stats used in the regression analysis. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This dashboard is dedicated to exploring the relationship between Salary and Production. </t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>This dashboard is dedicated to exploring the variation in salary groupings. Each boxplots contains all of the players that fall into that salary group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dashboard is dedicated to exploring the relationship between the NBA Value Over Replacement Player stat and other NBA stats used in the analysis. </t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8B0A43-3AE6-4E12-BE1A-5F823A2D23F4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
